--- a/AnalysisCode_python/Outputs/DI_summary_SAN JOAQUINout.xlsx
+++ b/AnalysisCode_python/Outputs/DI_summary_SAN JOAQUINout.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[99.96471412]</t>
+          <t>[100.2133839]</t>
         </is>
       </c>
     </row>
